--- a/biology/Zoologie/Chiasmia_goldiei/Chiasmia_goldiei.xlsx
+++ b/biology/Zoologie/Chiasmia_goldiei/Chiasmia_goldiei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiasmia goldiei est une espèce de papillon de la famille des Geometridae décrite pour la première fois par Herbert Druce en 1882. On le trouve en Australie et en Papouasie-Nouvelle-Guinée.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ailes antérieures sont noires et traversées en leur milieu par une large bande orange et avec le sommet de l'aile bordé de blanc. Les ailes postérieures sont noires, traversées de la marge costale à près de l'angle anal par une bande jaune effilée presque en une ligne. Le dessous est identique au dessus. La tête, le thorax et l'abdomen sont noirs[3]. Son envergure est d'environ 45 mm[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ailes antérieures sont noires et traversées en leur milieu par une large bande orange et avec le sommet de l'aile bordé de blanc. Les ailes postérieures sont noires, traversées de la marge costale à près de l'angle anal par une bande jaune effilée presque en une ligne. Le dessous est identique au dessus. La tête, le thorax et l'abdomen sont noirs. Son envergure est d'environ 45 mm.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chiasmia goldiei goldiei
 Chiasmia goldiei imperifascia (Prout, 1931)</t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Herbert Druce, « Descriptions of a new Genus and some new Species of Heterocera. », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 50, no 4,‎ 1882, p. 777–782 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1096-3642.1883.TB02797.X, lire en ligne)</t>
         </is>
